--- a/data/test3.xlsx
+++ b/data/test3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ODT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B6A3BE-0524-43E2-AA81-4B8FD7594E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A07CFE-A98F-486E-A62D-D12E6714DC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1210" windowWidth="15470" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test3" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{318C75D0-69E2-4A9C-8FBD-F6F79648AD81}" type="CELLRANGE">
+                    <a:fld id="{2BDD2C7B-7FF8-4BB8-BD91-1665BAC2BB80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -795,7 +795,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B63AD82-8C92-4B3A-9531-0111551B20D7}" type="CELLRANGE">
+                    <a:fld id="{FE957836-62F8-4EBE-8B22-590282E35C0B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -828,7 +828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A2E5424-4AFC-41B4-ACB4-92F0205BE42B}" type="CELLRANGE">
+                    <a:fld id="{ECA1780D-06E9-41C0-88D4-E330D08770B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -861,7 +861,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3D7BDF2-45AA-4AC6-9FDF-B8B1A091E87F}" type="CELLRANGE">
+                    <a:fld id="{BD58AE44-81B4-41C1-86AC-76E41319AB0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1093,7 +1093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6A6A797-74FB-4943-818E-01D0C5EAC675}" type="CELLRANGE">
+                    <a:fld id="{29CEDF92-85CC-4365-B399-4E4B3ED88A2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1126,7 +1126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44A8FB17-C2F9-4BEC-AFA1-5327BDE59631}" type="CELLRANGE">
+                    <a:fld id="{8E191265-83F7-4DEF-9DB3-DD7D17F0E647}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1159,7 +1159,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BE5DE73-8D15-4656-BD19-D719E871BEDC}" type="CELLRANGE">
+                    <a:fld id="{2B6619C4-D487-4570-A027-7FFCBCD41375}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1192,7 +1192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70C9F42D-78D9-4514-87A6-FEF3E9F2B7E5}" type="CELLRANGE">
+                    <a:fld id="{22F9B913-D6A8-4116-9F9D-D8E4705A95A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2291,11 +2291,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2312,8 +2312,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5340350" y="533400"/>
-          <a:ext cx="469900" cy="1504950"/>
+          <a:off x="5325110" y="449580"/>
+          <a:ext cx="679450" cy="1574800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,12 +2356,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -2378,8 +2378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="1130300"/>
-          <a:ext cx="1371600" cy="946150"/>
+          <a:off x="5280660" y="1013460"/>
+          <a:ext cx="1562100" cy="1049020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2422,12 +2422,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -2444,8 +2444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5257800" y="1714500"/>
-          <a:ext cx="2305050" cy="406400"/>
+          <a:off x="5242560" y="1562100"/>
+          <a:ext cx="2522220" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2787,16 +2787,16 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="8.77734375" style="1"/>
+    <col min="6" max="6" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
